--- a/JavaExcelHandling/WriteExceldata.xlsx
+++ b/JavaExcelHandling/WriteExceldata.xlsx
@@ -12,7 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
+  <si>
+    <t>India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,74 +66,36 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>2.0</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" t="n">
-        <v>3.0</v>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4.0</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.0</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.0</v>
+      <c r="C2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>6.0</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>7.0</v>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>744.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>17.0</v>
+      <c r="C3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
